--- a/coordinates_sample/216东郡/216东郡.xlsx
+++ b/coordinates_sample/216东郡/216东郡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/216东郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F33D4CA-56D2-4D46-B089-B8E274F81105}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42B0D4C-50CA-134A-BAB5-A8DD6B9166FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="216(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乐昌侯国</t>
+    <t>乐昌县</t>
     <rPh sb="0" eb="2">
       <t>hou'guo</t>
     </rPh>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F69120-B0D3-634A-8C44-46BBDB83D29B}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD0CBD7-5FCF-4F4C-991D-AAD967BA5A46}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
